--- a/Doc/구현할것들.xlsx
+++ b/Doc/구현할것들.xlsx
@@ -16,13 +16,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>구현 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalSection 랩핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stl allocator 제정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level singleton 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRACE &amp; ASSERT 제작? 부스트 나 atl 사용?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory Block Pool 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object Memory Pool 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timer 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buffer 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory 랩핑 class 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>socket 랩핑 class 제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -56,7 +100,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -388,22 +432,95 @@
     <col min="2" max="2" width="54.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/구현할것들.xlsx
+++ b/Doc/구현할것들.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,14 @@
   </si>
   <si>
     <t>socket 랩핑 class 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,11 +127,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -420,19 +431,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.125" customWidth="1"/>
     <col min="2" max="2" width="54.25" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,86 +454,143 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Doc/구현할것들.xlsx
+++ b/Doc/구현할것들.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,14 @@
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 좀 해봐야 됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +442,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -485,7 +493,12 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
